--- a/Data/StateData.xlsx
+++ b/Data/StateData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redhawks-my.sharepoint.com/personal/sandhusupree_seattleu_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F97FCD53-02FB-4FCD-BDBB-4A67A03A9820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5CAD550-55D6-4131-9C74-2E978C3E6438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0BC0D8B4-8D29-412E-AC99-B91201E6EEF8}"/>
   </bookViews>
@@ -36,7 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
   <si>
     <t>WA</t>
   </si>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FF76F6-A13A-49DD-864E-45C66275A18B}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -482,76 +488,76 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -559,66 +565,74 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
